--- a/data/134/DEUSTATIS/Foreign trade - EGW1 codes.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - EGW1 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="44">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 classifications of trading goods</t>
@@ -136,13 +136,16 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:10:51</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:47:31</t>
   </si>
 </sst>
 </file>
@@ -8853,19 +8856,19 @@
         <v>14</v>
       </c>
       <c r="D338" t="n" s="10">
-        <v>6064483.0</v>
+        <v>6078756.0</v>
       </c>
       <c r="E338" t="n" s="10">
-        <v>1263392.0</v>
+        <v>1267306.0</v>
       </c>
       <c r="F338" t="n" s="10">
-        <v>1.04282527E8</v>
+        <v>1.04402522E8</v>
       </c>
       <c r="G338" t="n" s="10">
-        <v>6202860.0</v>
+        <v>6206702.0</v>
       </c>
       <c r="H338" t="n" s="10">
-        <v>9.6816275E7</v>
+        <v>9.6928514E7</v>
       </c>
     </row>
     <row r="339">
@@ -8876,19 +8879,19 @@
         <v>14</v>
       </c>
       <c r="D339" t="n" s="10">
-        <v>7703336.0</v>
+        <v>7715447.0</v>
       </c>
       <c r="E339" t="n" s="10">
-        <v>6393303.0</v>
+        <v>6394352.0</v>
       </c>
       <c r="F339" t="n" s="10">
-        <v>8.4198986E7</v>
+        <v>8.4440803E7</v>
       </c>
       <c r="G339" t="n" s="10">
-        <v>8103890.0</v>
+        <v>8105060.0</v>
       </c>
       <c r="H339" t="n" s="10">
-        <v>6.9701793E7</v>
+        <v>6.9941391E7</v>
       </c>
     </row>
     <row r="340">
@@ -8902,19 +8905,19 @@
         <v>14</v>
       </c>
       <c r="D340" t="n" s="10">
-        <v>6404950.0</v>
+        <v>6429637.0</v>
       </c>
       <c r="E340" t="n" s="10">
-        <v>1324186.0</v>
+        <v>1327920.0</v>
       </c>
       <c r="F340" t="n" s="10">
-        <v>1.01196469E8</v>
+        <v>1.01452991E8</v>
       </c>
       <c r="G340" t="n" s="10">
-        <v>6317620.0</v>
+        <v>6325991.0</v>
       </c>
       <c r="H340" t="n" s="10">
-        <v>9.3554663E7</v>
+        <v>9.3799081E7</v>
       </c>
     </row>
     <row r="341">
@@ -8925,19 +8928,19 @@
         <v>14</v>
       </c>
       <c r="D341" t="n" s="10">
-        <v>7848190.0</v>
+        <v>7886453.0</v>
       </c>
       <c r="E341" t="n" s="10">
-        <v>6677900.0</v>
+        <v>6869909.0</v>
       </c>
       <c r="F341" t="n" s="10">
-        <v>8.4062673E7</v>
+        <v>8.4626787E7</v>
       </c>
       <c r="G341" t="n" s="10">
-        <v>8582227.0</v>
+        <v>8593317.0</v>
       </c>
       <c r="H341" t="n" s="10">
-        <v>6.8802547E7</v>
+        <v>6.9163561E7</v>
       </c>
     </row>
     <row r="342">
@@ -8951,19 +8954,19 @@
         <v>14</v>
       </c>
       <c r="D342" t="n" s="10">
-        <v>6378278.0</v>
+        <v>6432254.0</v>
       </c>
       <c r="E342" t="n" s="10">
-        <v>1383791.0</v>
+        <v>1394853.0</v>
       </c>
       <c r="F342" t="n" s="10">
-        <v>1.09729313E8</v>
+        <v>1.10279151E8</v>
       </c>
       <c r="G342" t="n" s="10">
-        <v>6594012.0</v>
+        <v>6624466.0</v>
       </c>
       <c r="H342" t="n" s="10">
-        <v>1.0175151E8</v>
+        <v>1.02259832E8</v>
       </c>
     </row>
     <row r="343">
@@ -8974,19 +8977,19 @@
         <v>14</v>
       </c>
       <c r="D343" t="n" s="10">
-        <v>7776845.0</v>
+        <v>7867414.0</v>
       </c>
       <c r="E343" t="n" s="10">
-        <v>7344573.0</v>
+        <v>7135014.0</v>
       </c>
       <c r="F343" t="n" s="10">
-        <v>8.9033159E7</v>
+        <v>8.9503305E7</v>
       </c>
       <c r="G343" t="n" s="10">
-        <v>8281285.0</v>
+        <v>8322909.0</v>
       </c>
       <c r="H343" t="n" s="10">
-        <v>7.3407301E7</v>
+        <v>7.4045382E7</v>
       </c>
     </row>
     <row r="344">
@@ -9000,19 +9003,19 @@
         <v>14</v>
       </c>
       <c r="D344" t="n" s="10">
-        <v>6360029.0</v>
+        <v>6427688.0</v>
       </c>
       <c r="E344" t="n" s="10">
-        <v>1609485.0</v>
+        <v>1624176.0</v>
       </c>
       <c r="F344" t="n" s="10">
-        <v>1.0607227E8</v>
+        <v>1.06710666E8</v>
       </c>
       <c r="G344" t="n" s="10">
-        <v>6365363.0</v>
+        <v>6410018.0</v>
       </c>
       <c r="H344" t="n" s="10">
-        <v>9.8097422E7</v>
+        <v>9.8676472E7</v>
       </c>
     </row>
     <row r="345">
@@ -9023,19 +9026,19 @@
         <v>14</v>
       </c>
       <c r="D345" t="n" s="10">
-        <v>7315484.0</v>
+        <v>7479413.0</v>
       </c>
       <c r="E345" t="n" s="10">
-        <v>7360410.0</v>
+        <v>7323292.0</v>
       </c>
       <c r="F345" t="n" s="10">
-        <v>8.3923667E7</v>
+        <v>8.4818538E7</v>
       </c>
       <c r="G345" t="n" s="10">
-        <v>8278919.0</v>
+        <v>8326118.0</v>
       </c>
       <c r="H345" t="n" s="10">
-        <v>6.8284338E7</v>
+        <v>6.9169128E7</v>
       </c>
     </row>
     <row r="346">
@@ -9049,19 +9052,19 @@
         <v>14</v>
       </c>
       <c r="D346" t="n" s="10">
-        <v>6327449.0</v>
+        <v>6394985.0</v>
       </c>
       <c r="E346" t="n" s="10">
-        <v>1657107.0</v>
+        <v>1674657.0</v>
       </c>
       <c r="F346" t="n" s="10">
-        <v>9.5133282E7</v>
+        <v>9.5923639E7</v>
       </c>
       <c r="G346" t="n" s="10">
-        <v>6184054.0</v>
+        <v>6253137.0</v>
       </c>
       <c r="H346" t="n" s="10">
-        <v>8.7292121E7</v>
+        <v>8.7995845E7</v>
       </c>
     </row>
     <row r="347">
@@ -9072,19 +9075,19 @@
         <v>14</v>
       </c>
       <c r="D347" t="n" s="10">
-        <v>7313405.0</v>
+        <v>7478118.0</v>
       </c>
       <c r="E347" t="n" s="10">
-        <v>7697252.0</v>
+        <v>7704759.0</v>
       </c>
       <c r="F347" t="n" s="10">
-        <v>7.9822758E7</v>
+        <v>8.0981796E7</v>
       </c>
       <c r="G347" t="n" s="10">
-        <v>8066253.0</v>
+        <v>8122100.0</v>
       </c>
       <c r="H347" t="n" s="10">
-        <v>6.4059253E7</v>
+        <v>6.5154937E7</v>
       </c>
     </row>
     <row r="348">
@@ -9098,19 +9101,19 @@
         <v>14</v>
       </c>
       <c r="D348" t="n" s="10">
-        <v>6601251.0</v>
+        <v>6725100.0</v>
       </c>
       <c r="E348" t="n" s="10">
-        <v>1792541.0</v>
+        <v>1845347.0</v>
       </c>
       <c r="F348" t="n" s="10">
-        <v>1.06717004E8</v>
+        <v>1.08679676E8</v>
       </c>
       <c r="G348" t="n" s="10">
-        <v>6865509.0</v>
+        <v>7066934.0</v>
       </c>
       <c r="H348" t="n" s="10">
-        <v>9.8058954E7</v>
+        <v>9.9767395E7</v>
       </c>
     </row>
     <row r="349">
@@ -9121,19 +9124,19 @@
         <v>14</v>
       </c>
       <c r="D349" t="n" s="10">
-        <v>7442888.0</v>
+        <v>7730797.0</v>
       </c>
       <c r="E349" t="n" s="10">
-        <v>8305695.0</v>
+        <v>8336862.0</v>
       </c>
       <c r="F349" t="n" s="10">
-        <v>8.6443771E7</v>
+        <v>8.8559644E7</v>
       </c>
       <c r="G349" t="n" s="10">
-        <v>7886022.0</v>
+        <v>8001097.0</v>
       </c>
       <c r="H349" t="n" s="10">
-        <v>7.0252055E7</v>
+        <v>7.2221684E7</v>
       </c>
     </row>
     <row r="350">
@@ -9147,19 +9150,19 @@
         <v>14</v>
       </c>
       <c r="D350" t="n" s="10">
-        <v>6772178.0</v>
+        <v>6881172.0</v>
       </c>
       <c r="E350" t="n" s="10">
-        <v>1955841.0</v>
+        <v>1996146.0</v>
       </c>
       <c r="F350" t="n" s="10">
-        <v>1.09857216E8</v>
+        <v>1.11296021E8</v>
       </c>
       <c r="G350" t="n" s="10">
-        <v>7239135.0</v>
+        <v>7398775.0</v>
       </c>
       <c r="H350" t="n" s="10">
-        <v>1.0066224E8</v>
+        <v>1.019011E8</v>
       </c>
     </row>
     <row r="351">
@@ -9170,19 +9173,19 @@
         <v>14</v>
       </c>
       <c r="D351" t="n" s="10">
-        <v>7684589.0</v>
+        <v>7916549.0</v>
       </c>
       <c r="E351" t="n" s="10">
-        <v>1.0250544E7</v>
+        <v>1.0381946E7</v>
       </c>
       <c r="F351" t="n" s="10">
-        <v>9.2408683E7</v>
+        <v>9.4290064E7</v>
       </c>
       <c r="G351" t="n" s="10">
-        <v>8046583.0</v>
+        <v>8207732.0</v>
       </c>
       <c r="H351" t="n" s="10">
-        <v>7.4111557E7</v>
+        <v>7.5700385E7</v>
       </c>
     </row>
     <row r="352">
@@ -9195,20 +9198,20 @@
       <c r="C352" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D352" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E352" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F352" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G352" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H352" t="s" s="10">
-        <v>40</v>
+      <c r="D352" t="n" s="10">
+        <v>6924417.0</v>
+      </c>
+      <c r="E352" t="n" s="10">
+        <v>1893843.0</v>
+      </c>
+      <c r="F352" t="n" s="10">
+        <v>1.15198536E8</v>
+      </c>
+      <c r="G352" t="n" s="10">
+        <v>7831112.0</v>
+      </c>
+      <c r="H352" t="n" s="10">
+        <v>1.05473581E8</v>
       </c>
     </row>
     <row r="353">
@@ -9218,20 +9221,20 @@
       <c r="C353" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D353" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E353" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F353" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G353" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H353" t="s" s="10">
-        <v>40</v>
+      <c r="D353" t="n" s="10">
+        <v>8272067.0</v>
+      </c>
+      <c r="E353" t="n" s="10">
+        <v>1.0899286E7</v>
+      </c>
+      <c r="F353" t="n" s="10">
+        <v>9.8263759E7</v>
+      </c>
+      <c r="G353" t="n" s="10">
+        <v>8737175.0</v>
+      </c>
+      <c r="H353" t="n" s="10">
+        <v>7.8627298E7</v>
       </c>
     </row>
     <row r="354">
@@ -9244,20 +9247,20 @@
       <c r="C354" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D354" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E354" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F354" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G354" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H354" t="s" s="10">
-        <v>40</v>
+      <c r="D354" t="n" s="10">
+        <v>6526280.0</v>
+      </c>
+      <c r="E354" t="n" s="10">
+        <v>2392919.0</v>
+      </c>
+      <c r="F354" t="n" s="10">
+        <v>1.0591116E8</v>
+      </c>
+      <c r="G354" t="n" s="10">
+        <v>7483099.0</v>
+      </c>
+      <c r="H354" t="n" s="10">
+        <v>9.6035141E7</v>
       </c>
     </row>
     <row r="355">
@@ -9267,30 +9270,623 @@
       <c r="C355" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D355" t="s" s="10">
+      <c r="D355" t="n" s="10">
+        <v>8284909.0</v>
+      </c>
+      <c r="E355" t="n" s="10">
+        <v>1.2853727E7</v>
+      </c>
+      <c r="F355" t="n" s="10">
+        <v>9.3353265E7</v>
+      </c>
+      <c r="G355" t="n" s="10">
+        <v>8263199.0</v>
+      </c>
+      <c r="H355" t="n" s="10">
+        <v>7.2236339E7</v>
+      </c>
+    </row>
+    <row r="356" ht="50.6" customHeight="true">
+      <c r="A356" t="s" s="14">
         <v>40</v>
       </c>
-      <c r="E355" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="F355" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="G355" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="H355" t="s" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s" s="11">
-        <v>41</v>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="B357" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C357" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D357" t="n" s="10">
+        <v>5879818.0</v>
+      </c>
+      <c r="E357" t="n" s="10">
+        <v>1980273.0</v>
+      </c>
+      <c r="F357" t="n" s="10">
+        <v>9.9380317E7</v>
+      </c>
+      <c r="G357" t="n" s="10">
+        <v>7433416.0</v>
+      </c>
+      <c r="H357" t="n" s="10">
+        <v>8.9966629E7</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="12">
+      <c r="B358" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C358" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D358" t="n" s="10">
+        <v>7098866.0</v>
+      </c>
+      <c r="E358" t="n" s="10">
+        <v>1.3740652E7</v>
+      </c>
+      <c r="F358" t="n" s="10">
+        <v>9.1231274E7</v>
+      </c>
+      <c r="G358" t="n" s="10">
+        <v>7732707.0</v>
+      </c>
+      <c r="H358" t="n" s="10">
+        <v>6.9757915E7</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B359" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C359" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D359" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E359" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F359" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G359" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H359" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C360" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D360" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E360" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F360" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G360" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H360" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="B361" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C361" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D361" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E361" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F361" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G361" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H361" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C362" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D362" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E362" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F362" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G362" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H362" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="B363" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C363" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D363" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E363" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F363" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G363" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H363" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C364" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D364" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E364" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F364" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G364" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H364" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="B365" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C365" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D365" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E365" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F365" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G365" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H365" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C366" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D366" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E366" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F366" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G366" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H366" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="B367" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C367" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D367" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E367" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F367" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G367" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H367" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C368" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D368" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E368" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F368" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G368" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H368" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="B369" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C369" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D369" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E369" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F369" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G369" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H369" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C370" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D370" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E370" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F370" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G370" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H370" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="B371" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C371" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D371" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E371" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F371" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G371" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H371" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C372" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D372" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E372" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F372" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G372" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H372" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="9">
+        <v>23</v>
+      </c>
+      <c r="B373" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C373" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D373" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E373" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F373" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G373" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H373" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C374" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D374" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E374" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F374" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G374" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H374" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="B375" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C375" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D375" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E375" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F375" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G375" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H375" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C376" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D376" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E376" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F376" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G376" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H376" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="B377" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C377" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D377" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E377" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F377" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G377" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H377" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C378" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D378" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E378" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F378" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G378" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H378" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B379" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C379" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D379" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E379" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F379" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G379" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H379" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C380" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="D380" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="E380" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="F380" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="G380" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="H380" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="11">
         <v>42</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="12">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -9314,11 +9910,12 @@
     <mergeCell ref="A281:H281"/>
     <mergeCell ref="A306:H306"/>
     <mergeCell ref="A331:H331"/>
+    <mergeCell ref="A356:H356"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:10:56&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:47:36&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>